--- a/biology/Neurosciences/Hans_Curschmann/Hans_Curschmann.xlsx
+++ b/biology/Neurosciences/Hans_Curschmann/Hans_Curschmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Heinrich Curschmann (né le 14 août 1875 à Berlin et mort le 1er mars 1950 à Rostock) est un médecin interniste et neurologue universitaire allemand.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de l'interniste Heinrich Curschmann et de son épouse Margarethe, née Lohde. De 1891 à 1895, il fréquente le lycée royal (Königliche Gymnasium) de Leipzig[1], puis effectue ses études de médecine à l'université Albert Ludwig de Fribourg-en-Brisgau, à l'université de Leipzig et à l'Université Louis-et-Maximilien de Munich. En 1900 il obtient son doctorat en médecine et exerce jusqu'en 1907 en pathologie à l'université de Leipzig et en médecine interne à Heidelberg, Berlin et Tübingen.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de l'interniste Heinrich Curschmann et de son épouse Margarethe, née Lohde. De 1891 à 1895, il fréquente le lycée royal (Königliche Gymnasium) de Leipzig, puis effectue ses études de médecine à l'université Albert Ludwig de Fribourg-en-Brisgau, à l'université de Leipzig et à l'Université Louis-et-Maximilien de Munich. En 1900 il obtient son doctorat en médecine et exerce jusqu'en 1907 en pathologie à l'université de Leipzig et en médecine interne à Heidelberg, Berlin et Tübingen.
 En 1906, il est nommé professeur agrégé à l'Université Eberhard Karl de Tübingen. En 1907, il est médecin-chef du service de médecine interne à l'hôpital de Mayence.
 En 1916 il est professeur extraordinaire à l'université de Rostock puis, dès 1921, professeur ordinaire et directeur de la clinique de médecine.
 Hans Curschmann a décrit avec l'interniste allemand Hans Steinert (1875-1911) la dystrophie myotonique de type I (DM1), également connue comme la maladie de Curschmann-Steinert.
@@ -546,7 +560,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le 17  juin 1907, à Tübingen, Curschmann épouse Klara Helene (Leni) Wendt (née le 10 juillet 1884 à Iéna, décédée le 17 juillet 1972 à Lärz), la fille du professeur de droit Otto Heinrich Gustav von Wendt. De cette union sont nés plusieurs enfants, dont :
 Otto Heinrich Curschmann, ingénieur forestier à Lärz-Ausbau  Neustrelitz.
@@ -581,7 +597,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Über familiäre atrophische Myotonie. Deutsche Zeitschrift für Nervenheilkunde, 1912, 45: 161–202.
 Pathogenese und Therapie der Arteriosklerose. In: Abh Stoffwechselkrk, Halle, 1921.
